--- a/ypm.xlsx
+++ b/ypm.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="108" windowWidth="14808" windowHeight="8016" activeTab="10"/>
+    <workbookView xWindow="240" yWindow="108" windowWidth="14808" windowHeight="8016" activeTab="9"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="290" uniqueCount="170">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="295" uniqueCount="176">
   <si>
     <t>生命</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -161,24 +161,6 @@
   </si>
   <si>
     <t>UNIQUE</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">UNIQUE
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>PRIMARY KEY</t>
-    </r>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -324,26 +306,14 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>weaponlv_intensify</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>clothLv</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>clothLv_intensify</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>shoeLv</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>shoeLv_intensify</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>skillLv_1</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -706,6 +676,74 @@
   </si>
   <si>
     <t>exp</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>UNIQUE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>weaponLv_int</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>clothLv_int</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>shoeLv_int</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>INTEGER</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">AUTOINCREMENT
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>PRIMARY KEY</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">AUTOINCREMENT
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>PRIMARY KEY</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>创建角色时创建此表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>表名为Bag_playerID</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -864,7 +902,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="35">
+  <cellXfs count="39">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -933,6 +971,11 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -960,8 +1003,15 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -1098,11 +1148,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="264745728"/>
-        <c:axId val="264747264"/>
+        <c:axId val="262704512"/>
+        <c:axId val="263156864"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="264745728"/>
+        <c:axId val="262704512"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1112,7 +1162,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="264747264"/>
+        <c:crossAx val="263156864"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1120,7 +1170,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="264747264"/>
+        <c:axId val="263156864"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1131,7 +1181,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="264745728"/>
+        <c:crossAx val="262704512"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1658,7 +1708,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G16"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="I21" sqref="I21"/>
     </sheetView>
   </sheetViews>
@@ -1666,25 +1716,25 @@
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="B1" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="C1" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="D1" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="E1" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="F1" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="G1" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
@@ -1692,7 +1742,7 @@
         <v>6101</v>
       </c>
       <c r="B2" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="C2">
         <v>1</v>
@@ -1701,7 +1751,7 @@
         <v>1</v>
       </c>
       <c r="E2" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="F2">
         <v>3</v>
@@ -1715,7 +1765,7 @@
         <v>6102</v>
       </c>
       <c r="B3" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="C3">
         <v>3</v>
@@ -1724,7 +1774,7 @@
         <v>2</v>
       </c>
       <c r="E3" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="F3">
         <v>3</v>
@@ -1738,7 +1788,7 @@
         <v>6103</v>
       </c>
       <c r="B4" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="C4">
         <v>5</v>
@@ -1747,7 +1797,7 @@
         <v>3</v>
       </c>
       <c r="E4" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="F4">
         <v>3</v>
@@ -1761,7 +1811,7 @@
         <v>6104</v>
       </c>
       <c r="B5" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="C5">
         <v>7</v>
@@ -1770,7 +1820,7 @@
         <v>4</v>
       </c>
       <c r="E5" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="F5">
         <v>3</v>
@@ -1784,7 +1834,7 @@
         <v>6105</v>
       </c>
       <c r="B6" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="C6">
         <v>9</v>
@@ -1793,7 +1843,7 @@
         <v>5</v>
       </c>
       <c r="E6" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="F6">
         <v>3</v>
@@ -1803,232 +1853,232 @@
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A7" s="33">
+      <c r="A7" s="24">
         <v>6201</v>
       </c>
       <c r="B7" t="s">
-        <v>165</v>
-      </c>
-      <c r="C7" s="33">
+        <v>161</v>
+      </c>
+      <c r="C7" s="24">
         <v>5</v>
       </c>
-      <c r="D7" s="33">
+      <c r="D7" s="24">
         <v>1</v>
       </c>
-      <c r="E7" s="33" t="s">
-        <v>152</v>
-      </c>
-      <c r="F7" s="33">
+      <c r="E7" s="24" t="s">
+        <v>148</v>
+      </c>
+      <c r="F7" s="24">
         <v>6</v>
       </c>
-      <c r="G7" s="33">
+      <c r="G7" s="24">
         <v>40</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A8" s="33">
+      <c r="A8" s="24">
         <v>6202</v>
       </c>
       <c r="B8" t="s">
-        <v>165</v>
-      </c>
-      <c r="C8" s="33">
+        <v>161</v>
+      </c>
+      <c r="C8" s="24">
         <v>8</v>
       </c>
-      <c r="D8" s="33">
+      <c r="D8" s="24">
         <v>2</v>
       </c>
-      <c r="E8" s="33" t="s">
-        <v>152</v>
-      </c>
-      <c r="F8" s="33">
+      <c r="E8" s="24" t="s">
+        <v>148</v>
+      </c>
+      <c r="F8" s="24">
         <v>6</v>
       </c>
-      <c r="G8" s="33">
+      <c r="G8" s="24">
         <v>45</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A9" s="33">
+      <c r="A9" s="24">
         <v>6203</v>
       </c>
       <c r="B9" t="s">
-        <v>164</v>
-      </c>
-      <c r="C9" s="33">
+        <v>160</v>
+      </c>
+      <c r="C9" s="24">
         <v>11</v>
       </c>
-      <c r="D9" s="33">
+      <c r="D9" s="24">
         <v>3</v>
       </c>
-      <c r="E9" s="33" t="s">
-        <v>152</v>
-      </c>
-      <c r="F9" s="33">
+      <c r="E9" s="24" t="s">
+        <v>148</v>
+      </c>
+      <c r="F9" s="24">
         <v>6</v>
       </c>
-      <c r="G9" s="33">
+      <c r="G9" s="24">
         <v>50</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A10" s="33">
+      <c r="A10" s="24">
         <v>6204</v>
       </c>
       <c r="B10" t="s">
-        <v>164</v>
-      </c>
-      <c r="C10" s="33">
+        <v>160</v>
+      </c>
+      <c r="C10" s="24">
         <v>14</v>
       </c>
-      <c r="D10" s="33">
+      <c r="D10" s="24">
         <v>4</v>
       </c>
-      <c r="E10" s="33" t="s">
-        <v>152</v>
-      </c>
-      <c r="F10" s="33">
+      <c r="E10" s="24" t="s">
+        <v>148</v>
+      </c>
+      <c r="F10" s="24">
         <v>6</v>
       </c>
-      <c r="G10" s="33">
+      <c r="G10" s="24">
         <v>55</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A11" s="33">
+      <c r="A11" s="24">
         <v>6205</v>
       </c>
       <c r="B11" t="s">
-        <v>164</v>
-      </c>
-      <c r="C11" s="33">
+        <v>160</v>
+      </c>
+      <c r="C11" s="24">
         <v>17</v>
       </c>
-      <c r="D11" s="33">
+      <c r="D11" s="24">
         <v>5</v>
       </c>
-      <c r="E11" s="33" t="s">
-        <v>152</v>
-      </c>
-      <c r="F11" s="33">
+      <c r="E11" s="24" t="s">
+        <v>148</v>
+      </c>
+      <c r="F11" s="24">
         <v>6</v>
       </c>
-      <c r="G11" s="33">
+      <c r="G11" s="24">
         <v>60</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A12" s="34">
+      <c r="A12" s="25">
         <v>6301</v>
       </c>
       <c r="B12" t="s">
-        <v>167</v>
-      </c>
-      <c r="C12" s="34">
+        <v>163</v>
+      </c>
+      <c r="C12" s="25">
         <v>10</v>
       </c>
-      <c r="D12" s="34">
+      <c r="D12" s="25">
         <v>1</v>
       </c>
-      <c r="E12" s="34" t="s">
-        <v>154</v>
-      </c>
-      <c r="F12" s="34">
+      <c r="E12" s="25" t="s">
+        <v>150</v>
+      </c>
+      <c r="F12" s="25">
         <v>20</v>
       </c>
-      <c r="G12" s="34">
+      <c r="G12" s="25">
         <v>120</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A13" s="34">
+      <c r="A13" s="25">
         <v>6302</v>
       </c>
       <c r="B13" t="s">
-        <v>167</v>
-      </c>
-      <c r="C13" s="34">
+        <v>163</v>
+      </c>
+      <c r="C13" s="25">
         <v>15</v>
       </c>
-      <c r="D13" s="34">
+      <c r="D13" s="25">
         <v>2</v>
       </c>
-      <c r="E13" s="34" t="s">
-        <v>154</v>
-      </c>
-      <c r="F13" s="34">
+      <c r="E13" s="25" t="s">
+        <v>150</v>
+      </c>
+      <c r="F13" s="25">
         <v>20</v>
       </c>
-      <c r="G13" s="34">
+      <c r="G13" s="25">
         <v>120</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A14" s="34">
+      <c r="A14" s="25">
         <v>6303</v>
       </c>
       <c r="B14" t="s">
-        <v>166</v>
-      </c>
-      <c r="C14" s="34">
+        <v>162</v>
+      </c>
+      <c r="C14" s="25">
         <v>20</v>
       </c>
-      <c r="D14" s="34">
+      <c r="D14" s="25">
         <v>3</v>
       </c>
-      <c r="E14" s="34" t="s">
-        <v>154</v>
-      </c>
-      <c r="F14" s="34">
+      <c r="E14" s="25" t="s">
+        <v>150</v>
+      </c>
+      <c r="F14" s="25">
         <v>20</v>
       </c>
-      <c r="G14" s="34">
+      <c r="G14" s="25">
         <v>120</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A15" s="34">
+      <c r="A15" s="25">
         <v>6304</v>
       </c>
       <c r="B15" t="s">
-        <v>166</v>
-      </c>
-      <c r="C15" s="34">
+        <v>162</v>
+      </c>
+      <c r="C15" s="25">
         <v>25</v>
       </c>
-      <c r="D15" s="34">
+      <c r="D15" s="25">
         <v>4</v>
       </c>
-      <c r="E15" s="34" t="s">
-        <v>154</v>
-      </c>
-      <c r="F15" s="34">
+      <c r="E15" s="25" t="s">
+        <v>150</v>
+      </c>
+      <c r="F15" s="25">
         <v>20</v>
       </c>
-      <c r="G15" s="34">
+      <c r="G15" s="25">
         <v>120</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A16" s="34">
+      <c r="A16" s="25">
         <v>6305</v>
       </c>
       <c r="B16" t="s">
-        <v>166</v>
-      </c>
-      <c r="C16" s="34">
+        <v>162</v>
+      </c>
+      <c r="C16" s="25">
         <v>30</v>
       </c>
-      <c r="D16" s="34">
+      <c r="D16" s="25">
         <v>5</v>
       </c>
-      <c r="E16" s="34" t="s">
-        <v>154</v>
-      </c>
-      <c r="F16" s="34">
+      <c r="E16" s="25" t="s">
+        <v>150</v>
+      </c>
+      <c r="F16" s="25">
         <v>20</v>
       </c>
-      <c r="G16" s="34">
+      <c r="G16" s="25">
         <v>120</v>
       </c>
     </row>
@@ -2042,7 +2092,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B31"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D31" sqref="D31"/>
     </sheetView>
   </sheetViews>
@@ -2050,10 +2100,10 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
       <c r="B1" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
@@ -2426,10 +2476,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G49"/>
+  <dimension ref="A1:G50"/>
   <sheetViews>
     <sheetView topLeftCell="A37" workbookViewId="0">
-      <selection activeCell="D27" sqref="D27"/>
+      <selection activeCell="F45" sqref="F45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
@@ -2440,11 +2490,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="26" t="s">
+      <c r="A1" s="29" t="s">
         <v>27</v>
       </c>
-      <c r="B1" s="27"/>
-      <c r="C1" s="28"/>
+      <c r="B1" s="30"/>
+      <c r="C1" s="31"/>
     </row>
     <row r="2" spans="1:7" ht="32.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="8" t="s">
@@ -2454,7 +2504,7 @@
         <v>32</v>
       </c>
       <c r="C2" s="9" t="s">
-        <v>29</v>
+        <v>48</v>
       </c>
     </row>
     <row r="3" spans="1:7" ht="40.799999999999997" customHeight="1" x14ac:dyDescent="0.25">
@@ -2465,7 +2515,7 @@
         <v>31</v>
       </c>
       <c r="C3" s="9" t="s">
-        <v>34</v>
+        <v>166</v>
       </c>
     </row>
     <row r="4" spans="1:7" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
@@ -2479,11 +2529,11 @@
     </row>
     <row r="5" spans="1:7" ht="25.05" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="6" spans="1:7" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="29" t="s">
+      <c r="A6" s="32" t="s">
         <v>26</v>
       </c>
-      <c r="B6" s="30"/>
-      <c r="C6" s="31"/>
+      <c r="B6" s="33"/>
+      <c r="C6" s="34"/>
     </row>
     <row r="7" spans="1:7" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="12" t="s">
@@ -2514,178 +2564,178 @@
     </row>
     <row r="10" spans="1:7" ht="25.05" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="11" spans="1:7" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="32" t="s">
-        <v>51</v>
-      </c>
-      <c r="B11" s="32"/>
-      <c r="C11" s="32"/>
+      <c r="A11" s="35" t="s">
+        <v>50</v>
+      </c>
+      <c r="B11" s="35"/>
+      <c r="C11" s="35"/>
     </row>
     <row r="12" spans="1:7" ht="48.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="15" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B12" s="16" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C12" s="17" t="s">
-        <v>49</v>
+        <v>172</v>
       </c>
     </row>
     <row r="13" spans="1:7" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="8" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B13" s="7" t="s">
         <v>32</v>
       </c>
       <c r="C13" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="E13" s="25" t="s">
-        <v>46</v>
-      </c>
-      <c r="F13" s="25"/>
-      <c r="G13" s="25"/>
+        <v>35</v>
+      </c>
+      <c r="E13" s="28" t="s">
+        <v>45</v>
+      </c>
+      <c r="F13" s="28"/>
+      <c r="G13" s="28"/>
     </row>
     <row r="14" spans="1:7" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="B14" s="7" t="s">
         <v>37</v>
       </c>
-      <c r="B14" s="7" t="s">
+      <c r="C14" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="C14" s="7" t="s">
-        <v>39</v>
-      </c>
-      <c r="E14" s="25"/>
-      <c r="F14" s="25"/>
-      <c r="G14" s="25"/>
+      <c r="E14" s="28"/>
+      <c r="F14" s="28"/>
+      <c r="G14" s="28"/>
     </row>
     <row r="15" spans="1:7" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="B15" s="7" t="s">
         <v>40</v>
       </c>
-      <c r="B15" s="7" t="s">
+      <c r="C15" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="C15" s="7" t="s">
-        <v>42</v>
-      </c>
-      <c r="E15" s="25"/>
-      <c r="F15" s="25"/>
-      <c r="G15" s="25"/>
+      <c r="E15" s="28"/>
+      <c r="F15" s="28"/>
+      <c r="G15" s="28"/>
     </row>
     <row r="16" spans="1:7" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="8" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B16" s="7" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C16" s="7" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
     </row>
     <row r="17" spans="1:3" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="12" t="s">
+        <v>43</v>
+      </c>
+      <c r="B17" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="C17" s="11" t="s">
         <v>44</v>
-      </c>
-      <c r="B17" s="11" t="s">
-        <v>41</v>
-      </c>
-      <c r="C17" s="11" t="s">
-        <v>45</v>
       </c>
     </row>
     <row r="18" spans="1:3" ht="25.05" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="19" spans="1:3" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="24" t="s">
-        <v>50</v>
-      </c>
-      <c r="B19" s="24"/>
-      <c r="C19" s="24"/>
+      <c r="A19" s="27" t="s">
+        <v>49</v>
+      </c>
+      <c r="B19" s="27"/>
+      <c r="C19" s="27"/>
     </row>
     <row r="20" spans="1:3" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="12" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B20" s="11" t="s">
+        <v>51</v>
+      </c>
+      <c r="C20" s="11" t="s">
         <v>52</v>
-      </c>
-      <c r="C20" s="11" t="s">
-        <v>53</v>
       </c>
     </row>
     <row r="21" spans="1:3" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="12" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B21" s="11" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C21" s="11" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="22" spans="1:3" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="12" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B22" s="11" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C22" s="18"/>
     </row>
     <row r="23" spans="1:3" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="12" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B23" s="11" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C23" s="18"/>
     </row>
     <row r="24" spans="1:3" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="12" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="B24" s="11" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="C24" s="18"/>
     </row>
     <row r="25" spans="1:3" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="12" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B25" s="11" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C25" s="18"/>
     </row>
     <row r="26" spans="1:3" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="12" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B26" s="11" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C26" s="18"/>
     </row>
     <row r="27" spans="1:3" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="12" t="s">
+        <v>58</v>
+      </c>
+      <c r="B27" s="11" t="s">
+        <v>60</v>
+      </c>
+      <c r="C27" s="7" t="s">
         <v>59</v>
-      </c>
-      <c r="B27" s="11" t="s">
-        <v>61</v>
-      </c>
-      <c r="C27" s="7" t="s">
-        <v>60</v>
       </c>
     </row>
     <row r="28" spans="1:3" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="12" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B28" s="11" t="s">
         <v>32</v>
@@ -2694,7 +2744,7 @@
     </row>
     <row r="29" spans="1:3" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="12" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B29" s="11" t="s">
         <v>32</v>
@@ -2703,45 +2753,45 @@
     </row>
     <row r="30" spans="1:3" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="12" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B30" s="11" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C30" s="18"/>
     </row>
     <row r="32" spans="1:3" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="23" t="s">
+      <c r="A32" s="26" t="s">
+        <v>63</v>
+      </c>
+      <c r="B32" s="26"/>
+      <c r="C32" s="26"/>
+    </row>
+    <row r="33" spans="1:6" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A33" s="20" t="s">
         <v>64</v>
-      </c>
-      <c r="B32" s="23"/>
-      <c r="C32" s="23"/>
-    </row>
-    <row r="33" spans="1:3" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="20" t="s">
-        <v>65</v>
       </c>
       <c r="B33" s="19" t="s">
         <v>32</v>
       </c>
       <c r="C33" s="19" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="34" spans="1:3" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="20" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B34" s="19" t="s">
         <v>32</v>
       </c>
       <c r="C34" s="21" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="35" spans="1:3" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="20" t="s">
-        <v>67</v>
+        <v>167</v>
       </c>
       <c r="B35" s="19" t="s">
         <v>32</v>
@@ -2750,20 +2800,20 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:3" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:6" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="20" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="B36" s="19" t="s">
         <v>32</v>
       </c>
       <c r="C36" s="21" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="37" spans="1:3" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="20" t="s">
-        <v>69</v>
+        <v>168</v>
       </c>
       <c r="B37" s="19" t="s">
         <v>32</v>
@@ -2772,20 +2822,20 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:3" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:6" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="20" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="B38" s="19" t="s">
         <v>32</v>
       </c>
       <c r="C38" s="21" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="39" spans="1:3" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="20" t="s">
-        <v>71</v>
+        <v>169</v>
       </c>
       <c r="B39" s="19" t="s">
         <v>32</v>
@@ -2794,9 +2844,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:3" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:6" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="20" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="B40" s="19" t="s">
         <v>32</v>
@@ -2805,9 +2855,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="41" spans="1:3" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:6" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="20" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="B41" s="19" t="s">
         <v>32</v>
@@ -2816,9 +2866,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="42" spans="1:3" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:6" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="20" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="B42" s="19" t="s">
         <v>32</v>
@@ -2827,70 +2877,91 @@
         <v>1</v>
       </c>
     </row>
-    <row r="44" spans="1:3" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="24" t="s">
+    <row r="44" spans="1:6" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A44" s="27" t="s">
+        <v>73</v>
+      </c>
+      <c r="B44" s="27"/>
+      <c r="C44" s="27"/>
+    </row>
+    <row r="45" spans="1:6" ht="37.799999999999997" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A45" s="23" t="s">
+        <v>170</v>
+      </c>
+      <c r="B45" s="36" t="s">
+        <v>171</v>
+      </c>
+      <c r="C45" s="9" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A46" s="20" t="s">
+        <v>74</v>
+      </c>
+      <c r="B46" s="19" t="s">
+        <v>75</v>
+      </c>
+      <c r="C46" s="7" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A47" s="20" t="s">
+        <v>78</v>
+      </c>
+      <c r="B47" s="19" t="s">
         <v>77</v>
       </c>
-      <c r="B44" s="24"/>
-      <c r="C44" s="24"/>
-    </row>
-    <row r="45" spans="1:3" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="20" t="s">
-        <v>78</v>
-      </c>
-      <c r="B45" s="19" t="s">
+      <c r="C47" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="E47" s="37" t="s">
+        <v>174</v>
+      </c>
+      <c r="F47" s="37"/>
+    </row>
+    <row r="48" spans="1:6" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A48" s="20" t="s">
         <v>79</v>
       </c>
-      <c r="C45" s="7" t="s">
+      <c r="B48" s="19" t="s">
+        <v>77</v>
+      </c>
+      <c r="C48" s="7" t="s">
         <v>80</v>
       </c>
-    </row>
-    <row r="46" spans="1:3" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A46" s="20" t="s">
-        <v>82</v>
-      </c>
-      <c r="B46" s="19" t="s">
-        <v>81</v>
-      </c>
-      <c r="C46" s="7" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="47" spans="1:3" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A47" s="20" t="s">
-        <v>83</v>
-      </c>
-      <c r="B47" s="19" t="s">
-        <v>81</v>
-      </c>
-      <c r="C47" s="7" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="48" spans="1:3" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A48" s="20" t="s">
-        <v>85</v>
-      </c>
-      <c r="B48" s="19" t="s">
-        <v>81</v>
-      </c>
-      <c r="C48" s="7" t="s">
-        <v>86</v>
-      </c>
+      <c r="E48" s="38" t="s">
+        <v>175</v>
+      </c>
+      <c r="F48" s="38"/>
     </row>
     <row r="49" spans="1:3" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A49" s="20" t="s">
-        <v>87</v>
+        <v>81</v>
       </c>
       <c r="B49" s="19" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="C49" s="7" t="s">
-        <v>88</v>
+        <v>82</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A50" s="20" t="s">
+        <v>83</v>
+      </c>
+      <c r="B50" s="19" t="s">
+        <v>77</v>
+      </c>
+      <c r="C50" s="7" t="s">
+        <v>84</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="7">
+  <mergeCells count="9">
+    <mergeCell ref="E47:F47"/>
+    <mergeCell ref="E48:F48"/>
     <mergeCell ref="A32:C32"/>
     <mergeCell ref="A44:C44"/>
     <mergeCell ref="E13:G15"/>
@@ -2917,31 +2988,31 @@
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" s="22" t="s">
+        <v>87</v>
+      </c>
+      <c r="B1" s="22" t="s">
+        <v>88</v>
+      </c>
+      <c r="C1" s="22" t="s">
+        <v>89</v>
+      </c>
+      <c r="D1" s="22" t="s">
+        <v>90</v>
+      </c>
+      <c r="E1" s="22" t="s">
+        <v>100</v>
+      </c>
+      <c r="F1" s="22" t="s">
         <v>91</v>
       </c>
-      <c r="B1" s="22" t="s">
+      <c r="G1" s="22" t="s">
         <v>92</v>
       </c>
-      <c r="C1" s="22" t="s">
+      <c r="H1" s="22" t="s">
+        <v>58</v>
+      </c>
+      <c r="I1" s="22" t="s">
         <v>93</v>
-      </c>
-      <c r="D1" s="22" t="s">
-        <v>94</v>
-      </c>
-      <c r="E1" s="22" t="s">
-        <v>104</v>
-      </c>
-      <c r="F1" s="22" t="s">
-        <v>95</v>
-      </c>
-      <c r="G1" s="22" t="s">
-        <v>96</v>
-      </c>
-      <c r="H1" s="22" t="s">
-        <v>59</v>
-      </c>
-      <c r="I1" s="22" t="s">
-        <v>97</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
@@ -2949,7 +3020,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="22" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="C2" s="22">
         <v>100</v>
@@ -2970,7 +3041,7 @@
         <v>0.3</v>
       </c>
       <c r="I2" s="22" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
@@ -2978,7 +3049,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="22" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="C3" s="22">
         <v>150</v>
@@ -2999,7 +3070,7 @@
         <v>0.1</v>
       </c>
       <c r="I3" s="22" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
@@ -3007,7 +3078,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="22" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="C4" s="22">
         <v>120</v>
@@ -3028,7 +3099,7 @@
         <v>0</v>
       </c>
       <c r="I4" s="22" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
     </row>
   </sheetData>
@@ -3050,16 +3121,16 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="B1" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="C1" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="D1" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
@@ -3067,10 +3138,10 @@
         <v>1001</v>
       </c>
       <c r="B2" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="C2" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="D2">
         <v>200</v>
@@ -3081,10 +3152,10 @@
         <v>1002</v>
       </c>
       <c r="B3" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="C3" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="D3">
         <v>800</v>
@@ -3095,10 +3166,10 @@
         <v>1101</v>
       </c>
       <c r="B4" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="C4" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="D4">
         <v>300</v>
@@ -3109,10 +3180,10 @@
         <v>1102</v>
       </c>
       <c r="B5" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="C5" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="D5">
         <v>700</v>
@@ -3123,10 +3194,10 @@
         <v>1301</v>
       </c>
       <c r="B6" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="C6" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="D6">
         <v>1000</v>
@@ -3137,10 +3208,10 @@
         <v>1401</v>
       </c>
       <c r="B7" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="C7" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="D7">
         <v>1000</v>
@@ -3165,19 +3236,19 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="B1" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="C1" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="D1" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="E1" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
@@ -3185,10 +3256,10 @@
         <v>2001</v>
       </c>
       <c r="B2" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="C2" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="D2">
         <v>100</v>
@@ -3202,10 +3273,10 @@
         <v>2002</v>
       </c>
       <c r="B3" t="s">
+        <v>124</v>
+      </c>
+      <c r="C3" t="s">
         <v>128</v>
-      </c>
-      <c r="C3" t="s">
-        <v>132</v>
       </c>
       <c r="D3">
         <v>80</v>
@@ -3219,10 +3290,10 @@
         <v>2003</v>
       </c>
       <c r="B4" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="C4" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="D4">
         <v>60</v>
@@ -3236,10 +3307,10 @@
         <v>2101</v>
       </c>
       <c r="B5" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="C5" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="D5">
         <v>30</v>
@@ -3253,10 +3324,10 @@
         <v>2201</v>
       </c>
       <c r="B6" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="C6" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="D6">
         <v>10</v>
@@ -3283,10 +3354,10 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="B1" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
@@ -3294,7 +3365,7 @@
         <v>3001</v>
       </c>
       <c r="B2" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
@@ -3302,7 +3373,7 @@
         <v>3002</v>
       </c>
       <c r="B3" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
@@ -3310,7 +3381,7 @@
         <v>3003</v>
       </c>
       <c r="B4" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
     </row>
   </sheetData>
@@ -3324,32 +3395,32 @@
   <dimension ref="A1:G16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:G16"/>
+      <selection activeCell="H23" sqref="H23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="B1" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="C1" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="D1" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="E1" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="F1" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="G1" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
@@ -3357,7 +3428,7 @@
         <v>4101</v>
       </c>
       <c r="B2" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
       <c r="C2">
         <v>1</v>
@@ -3366,7 +3437,7 @@
         <v>1</v>
       </c>
       <c r="E2" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
       <c r="F2">
         <v>3</v>
@@ -3380,7 +3451,7 @@
         <v>4102</v>
       </c>
       <c r="B3" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
       <c r="C3">
         <v>3</v>
@@ -3389,7 +3460,7 @@
         <v>2</v>
       </c>
       <c r="E3" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="F3">
         <v>3</v>
@@ -3403,7 +3474,7 @@
         <v>4103</v>
       </c>
       <c r="B4" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="C4">
         <v>5</v>
@@ -3412,7 +3483,7 @@
         <v>3</v>
       </c>
       <c r="E4" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="F4">
         <v>3</v>
@@ -3426,7 +3497,7 @@
         <v>4104</v>
       </c>
       <c r="B5" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="C5">
         <v>7</v>
@@ -3435,7 +3506,7 @@
         <v>4</v>
       </c>
       <c r="E5" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="F5">
         <v>3</v>
@@ -3449,7 +3520,7 @@
         <v>4105</v>
       </c>
       <c r="B6" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="C6">
         <v>9</v>
@@ -3458,7 +3529,7 @@
         <v>5</v>
       </c>
       <c r="E6" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="F6">
         <v>3</v>
@@ -3468,232 +3539,232 @@
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A7" s="33">
+      <c r="A7" s="24">
         <v>4201</v>
       </c>
-      <c r="B7" s="33" t="s">
-        <v>151</v>
-      </c>
-      <c r="C7" s="33">
+      <c r="B7" s="24" t="s">
+        <v>147</v>
+      </c>
+      <c r="C7" s="24">
         <v>5</v>
       </c>
-      <c r="D7" s="33">
+      <c r="D7" s="24">
         <v>1</v>
       </c>
-      <c r="E7" s="33" t="s">
-        <v>152</v>
-      </c>
-      <c r="F7" s="33">
+      <c r="E7" s="24" t="s">
+        <v>148</v>
+      </c>
+      <c r="F7" s="24">
         <v>8</v>
       </c>
-      <c r="G7" s="33">
+      <c r="G7" s="24">
         <v>50</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A8" s="33">
+      <c r="A8" s="24">
         <v>4202</v>
       </c>
-      <c r="B8" s="33" t="s">
-        <v>151</v>
-      </c>
-      <c r="C8" s="33">
+      <c r="B8" s="24" t="s">
+        <v>147</v>
+      </c>
+      <c r="C8" s="24">
         <v>8</v>
       </c>
-      <c r="D8" s="33">
+      <c r="D8" s="24">
         <v>2</v>
       </c>
-      <c r="E8" s="33" t="s">
-        <v>152</v>
-      </c>
-      <c r="F8" s="33">
+      <c r="E8" s="24" t="s">
+        <v>148</v>
+      </c>
+      <c r="F8" s="24">
         <v>8</v>
       </c>
-      <c r="G8" s="33">
+      <c r="G8" s="24">
         <v>55</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A9" s="33">
+      <c r="A9" s="24">
         <v>4203</v>
       </c>
-      <c r="B9" s="33" t="s">
-        <v>144</v>
-      </c>
-      <c r="C9" s="33">
+      <c r="B9" s="24" t="s">
+        <v>140</v>
+      </c>
+      <c r="C9" s="24">
         <v>11</v>
       </c>
-      <c r="D9" s="33">
+      <c r="D9" s="24">
         <v>3</v>
       </c>
-      <c r="E9" s="33" t="s">
-        <v>152</v>
-      </c>
-      <c r="F9" s="33">
+      <c r="E9" s="24" t="s">
+        <v>148</v>
+      </c>
+      <c r="F9" s="24">
         <v>8</v>
       </c>
-      <c r="G9" s="33">
+      <c r="G9" s="24">
         <v>60</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A10" s="33">
+      <c r="A10" s="24">
         <v>4204</v>
       </c>
-      <c r="B10" s="33" t="s">
-        <v>144</v>
-      </c>
-      <c r="C10" s="33">
+      <c r="B10" s="24" t="s">
+        <v>140</v>
+      </c>
+      <c r="C10" s="24">
         <v>14</v>
       </c>
-      <c r="D10" s="33">
+      <c r="D10" s="24">
         <v>4</v>
       </c>
-      <c r="E10" s="33" t="s">
-        <v>152</v>
-      </c>
-      <c r="F10" s="33">
+      <c r="E10" s="24" t="s">
+        <v>148</v>
+      </c>
+      <c r="F10" s="24">
         <v>8</v>
       </c>
-      <c r="G10" s="33">
+      <c r="G10" s="24">
         <v>65</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A11" s="33">
+      <c r="A11" s="24">
         <v>4205</v>
       </c>
-      <c r="B11" s="33" t="s">
-        <v>144</v>
-      </c>
-      <c r="C11" s="33">
+      <c r="B11" s="24" t="s">
+        <v>140</v>
+      </c>
+      <c r="C11" s="24">
         <v>17</v>
       </c>
-      <c r="D11" s="33">
+      <c r="D11" s="24">
         <v>5</v>
       </c>
-      <c r="E11" s="33" t="s">
-        <v>152</v>
-      </c>
-      <c r="F11" s="33">
+      <c r="E11" s="24" t="s">
+        <v>148</v>
+      </c>
+      <c r="F11" s="24">
         <v>8</v>
       </c>
-      <c r="G11" s="33">
+      <c r="G11" s="24">
         <v>70</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A12" s="34">
+      <c r="A12" s="25">
         <v>4301</v>
       </c>
-      <c r="B12" s="34" t="s">
-        <v>153</v>
-      </c>
-      <c r="C12" s="34">
+      <c r="B12" s="25" t="s">
+        <v>149</v>
+      </c>
+      <c r="C12" s="25">
         <v>10</v>
       </c>
-      <c r="D12" s="34">
+      <c r="D12" s="25">
         <v>1</v>
       </c>
-      <c r="E12" s="34" t="s">
-        <v>154</v>
-      </c>
-      <c r="F12" s="34">
+      <c r="E12" s="25" t="s">
+        <v>150</v>
+      </c>
+      <c r="F12" s="25">
         <v>20</v>
       </c>
-      <c r="G12" s="34">
+      <c r="G12" s="25">
         <v>120</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A13" s="34">
+      <c r="A13" s="25">
         <v>4302</v>
       </c>
-      <c r="B13" s="34" t="s">
-        <v>153</v>
-      </c>
-      <c r="C13" s="34">
+      <c r="B13" s="25" t="s">
+        <v>149</v>
+      </c>
+      <c r="C13" s="25">
         <v>15</v>
       </c>
-      <c r="D13" s="34">
+      <c r="D13" s="25">
         <v>2</v>
       </c>
-      <c r="E13" s="34" t="s">
-        <v>154</v>
-      </c>
-      <c r="F13" s="34">
+      <c r="E13" s="25" t="s">
+        <v>150</v>
+      </c>
+      <c r="F13" s="25">
         <v>20</v>
       </c>
-      <c r="G13" s="34">
+      <c r="G13" s="25">
         <v>120</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A14" s="34">
+      <c r="A14" s="25">
         <v>4303</v>
       </c>
-      <c r="B14" s="34" t="s">
-        <v>145</v>
-      </c>
-      <c r="C14" s="34">
+      <c r="B14" s="25" t="s">
+        <v>141</v>
+      </c>
+      <c r="C14" s="25">
         <v>20</v>
       </c>
-      <c r="D14" s="34">
+      <c r="D14" s="25">
         <v>3</v>
       </c>
-      <c r="E14" s="34" t="s">
-        <v>154</v>
-      </c>
-      <c r="F14" s="34">
+      <c r="E14" s="25" t="s">
+        <v>150</v>
+      </c>
+      <c r="F14" s="25">
         <v>20</v>
       </c>
-      <c r="G14" s="34">
+      <c r="G14" s="25">
         <v>120</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A15" s="34">
+      <c r="A15" s="25">
         <v>4304</v>
       </c>
-      <c r="B15" s="34" t="s">
-        <v>145</v>
-      </c>
-      <c r="C15" s="34">
+      <c r="B15" s="25" t="s">
+        <v>141</v>
+      </c>
+      <c r="C15" s="25">
         <v>25</v>
       </c>
-      <c r="D15" s="34">
+      <c r="D15" s="25">
         <v>4</v>
       </c>
-      <c r="E15" s="34" t="s">
-        <v>154</v>
-      </c>
-      <c r="F15" s="34">
+      <c r="E15" s="25" t="s">
+        <v>150</v>
+      </c>
+      <c r="F15" s="25">
         <v>20</v>
       </c>
-      <c r="G15" s="34">
+      <c r="G15" s="25">
         <v>120</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A16" s="34">
+      <c r="A16" s="25">
         <v>4305</v>
       </c>
-      <c r="B16" s="34" t="s">
-        <v>145</v>
-      </c>
-      <c r="C16" s="34">
+      <c r="B16" s="25" t="s">
+        <v>141</v>
+      </c>
+      <c r="C16" s="25">
         <v>30</v>
       </c>
-      <c r="D16" s="34">
+      <c r="D16" s="25">
         <v>5</v>
       </c>
-      <c r="E16" s="34" t="s">
-        <v>154</v>
-      </c>
-      <c r="F16" s="34">
+      <c r="E16" s="25" t="s">
+        <v>150</v>
+      </c>
+      <c r="F16" s="25">
         <v>20</v>
       </c>
-      <c r="G16" s="34">
+      <c r="G16" s="25">
         <v>120</v>
       </c>
     </row>
@@ -3708,32 +3779,32 @@
   <dimension ref="A1:G16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:G16"/>
+      <selection activeCell="J29" sqref="J29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="B1" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="C1" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="D1" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="E1" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="F1" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="G1" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
@@ -3741,7 +3812,7 @@
         <v>5101</v>
       </c>
       <c r="B2" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="C2">
         <v>1</v>
@@ -3750,7 +3821,7 @@
         <v>1</v>
       </c>
       <c r="E2" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="F2">
         <v>4</v>
@@ -3764,7 +3835,7 @@
         <v>5102</v>
       </c>
       <c r="B3" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="C3">
         <v>3</v>
@@ -3773,7 +3844,7 @@
         <v>2</v>
       </c>
       <c r="E3" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="F3">
         <v>4</v>
@@ -3787,7 +3858,7 @@
         <v>5103</v>
       </c>
       <c r="B4" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="C4">
         <v>5</v>
@@ -3796,7 +3867,7 @@
         <v>3</v>
       </c>
       <c r="E4" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="F4">
         <v>4</v>
@@ -3810,7 +3881,7 @@
         <v>5104</v>
       </c>
       <c r="B5" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="C5">
         <v>7</v>
@@ -3819,7 +3890,7 @@
         <v>4</v>
       </c>
       <c r="E5" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="F5">
         <v>4</v>
@@ -3833,7 +3904,7 @@
         <v>5105</v>
       </c>
       <c r="B6" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="C6">
         <v>9</v>
@@ -3842,7 +3913,7 @@
         <v>5</v>
       </c>
       <c r="E6" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="F6">
         <v>4</v>
@@ -3852,232 +3923,232 @@
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A7" s="33">
+      <c r="A7" s="24">
         <v>5201</v>
       </c>
       <c r="B7" t="s">
-        <v>159</v>
-      </c>
-      <c r="C7" s="33">
+        <v>155</v>
+      </c>
+      <c r="C7" s="24">
         <v>5</v>
       </c>
-      <c r="D7" s="33">
+      <c r="D7" s="24">
         <v>1</v>
       </c>
-      <c r="E7" s="33" t="s">
-        <v>152</v>
-      </c>
-      <c r="F7" s="33">
+      <c r="E7" s="24" t="s">
+        <v>148</v>
+      </c>
+      <c r="F7" s="24">
         <v>10</v>
       </c>
-      <c r="G7" s="33">
+      <c r="G7" s="24">
         <v>40</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A8" s="33">
+      <c r="A8" s="24">
         <v>5202</v>
       </c>
       <c r="B8" t="s">
-        <v>159</v>
-      </c>
-      <c r="C8" s="33">
+        <v>155</v>
+      </c>
+      <c r="C8" s="24">
         <v>8</v>
       </c>
-      <c r="D8" s="33">
+      <c r="D8" s="24">
         <v>2</v>
       </c>
-      <c r="E8" s="33" t="s">
-        <v>152</v>
-      </c>
-      <c r="F8" s="33">
+      <c r="E8" s="24" t="s">
+        <v>148</v>
+      </c>
+      <c r="F8" s="24">
         <v>10</v>
       </c>
-      <c r="G8" s="33">
+      <c r="G8" s="24">
         <v>45</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A9" s="33">
+      <c r="A9" s="24">
         <v>5203</v>
       </c>
       <c r="B9" t="s">
-        <v>158</v>
-      </c>
-      <c r="C9" s="33">
+        <v>154</v>
+      </c>
+      <c r="C9" s="24">
         <v>11</v>
       </c>
-      <c r="D9" s="33">
+      <c r="D9" s="24">
         <v>3</v>
       </c>
-      <c r="E9" s="33" t="s">
-        <v>152</v>
-      </c>
-      <c r="F9" s="33">
+      <c r="E9" s="24" t="s">
+        <v>148</v>
+      </c>
+      <c r="F9" s="24">
         <v>10</v>
       </c>
-      <c r="G9" s="33">
+      <c r="G9" s="24">
         <v>50</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A10" s="33">
+      <c r="A10" s="24">
         <v>5204</v>
       </c>
       <c r="B10" t="s">
-        <v>158</v>
-      </c>
-      <c r="C10" s="33">
+        <v>154</v>
+      </c>
+      <c r="C10" s="24">
         <v>14</v>
       </c>
-      <c r="D10" s="33">
+      <c r="D10" s="24">
         <v>4</v>
       </c>
-      <c r="E10" s="33" t="s">
-        <v>152</v>
-      </c>
-      <c r="F10" s="33">
+      <c r="E10" s="24" t="s">
+        <v>148</v>
+      </c>
+      <c r="F10" s="24">
         <v>10</v>
       </c>
-      <c r="G10" s="33">
+      <c r="G10" s="24">
         <v>55</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A11" s="33">
+      <c r="A11" s="24">
         <v>5205</v>
       </c>
       <c r="B11" t="s">
-        <v>158</v>
-      </c>
-      <c r="C11" s="33">
+        <v>154</v>
+      </c>
+      <c r="C11" s="24">
         <v>17</v>
       </c>
-      <c r="D11" s="33">
+      <c r="D11" s="24">
         <v>5</v>
       </c>
-      <c r="E11" s="33" t="s">
-        <v>152</v>
-      </c>
-      <c r="F11" s="33">
+      <c r="E11" s="24" t="s">
+        <v>148</v>
+      </c>
+      <c r="F11" s="24">
         <v>10</v>
       </c>
-      <c r="G11" s="33">
+      <c r="G11" s="24">
         <v>60</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A12" s="34">
+      <c r="A12" s="25">
         <v>5301</v>
       </c>
       <c r="B12" t="s">
-        <v>161</v>
-      </c>
-      <c r="C12" s="34">
+        <v>157</v>
+      </c>
+      <c r="C12" s="25">
         <v>10</v>
       </c>
-      <c r="D12" s="34">
+      <c r="D12" s="25">
         <v>1</v>
       </c>
-      <c r="E12" s="34" t="s">
-        <v>154</v>
-      </c>
-      <c r="F12" s="34">
+      <c r="E12" s="25" t="s">
+        <v>150</v>
+      </c>
+      <c r="F12" s="25">
         <v>20</v>
       </c>
-      <c r="G12" s="34">
+      <c r="G12" s="25">
         <v>100</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A13" s="34">
+      <c r="A13" s="25">
         <v>5302</v>
       </c>
       <c r="B13" t="s">
-        <v>161</v>
-      </c>
-      <c r="C13" s="34">
+        <v>157</v>
+      </c>
+      <c r="C13" s="25">
         <v>15</v>
       </c>
-      <c r="D13" s="34">
+      <c r="D13" s="25">
         <v>2</v>
       </c>
-      <c r="E13" s="34" t="s">
-        <v>154</v>
-      </c>
-      <c r="F13" s="34">
+      <c r="E13" s="25" t="s">
+        <v>150</v>
+      </c>
+      <c r="F13" s="25">
         <v>20</v>
       </c>
-      <c r="G13" s="34">
+      <c r="G13" s="25">
         <v>100</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A14" s="34">
+      <c r="A14" s="25">
         <v>5303</v>
       </c>
       <c r="B14" t="s">
-        <v>160</v>
-      </c>
-      <c r="C14" s="34">
+        <v>156</v>
+      </c>
+      <c r="C14" s="25">
         <v>20</v>
       </c>
-      <c r="D14" s="34">
+      <c r="D14" s="25">
         <v>3</v>
       </c>
-      <c r="E14" s="34" t="s">
-        <v>154</v>
-      </c>
-      <c r="F14" s="34">
+      <c r="E14" s="25" t="s">
+        <v>150</v>
+      </c>
+      <c r="F14" s="25">
         <v>20</v>
       </c>
-      <c r="G14" s="34">
+      <c r="G14" s="25">
         <v>100</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A15" s="34">
+      <c r="A15" s="25">
         <v>5304</v>
       </c>
       <c r="B15" t="s">
-        <v>160</v>
-      </c>
-      <c r="C15" s="34">
+        <v>156</v>
+      </c>
+      <c r="C15" s="25">
         <v>25</v>
       </c>
-      <c r="D15" s="34">
+      <c r="D15" s="25">
         <v>4</v>
       </c>
-      <c r="E15" s="34" t="s">
-        <v>154</v>
-      </c>
-      <c r="F15" s="34">
+      <c r="E15" s="25" t="s">
+        <v>150</v>
+      </c>
+      <c r="F15" s="25">
         <v>20</v>
       </c>
-      <c r="G15" s="34">
+      <c r="G15" s="25">
         <v>100</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A16" s="34">
+      <c r="A16" s="25">
         <v>5305</v>
       </c>
       <c r="B16" t="s">
-        <v>160</v>
-      </c>
-      <c r="C16" s="34">
+        <v>156</v>
+      </c>
+      <c r="C16" s="25">
         <v>30</v>
       </c>
-      <c r="D16" s="34">
+      <c r="D16" s="25">
         <v>5</v>
       </c>
-      <c r="E16" s="34" t="s">
-        <v>154</v>
-      </c>
-      <c r="F16" s="34">
+      <c r="E16" s="25" t="s">
+        <v>150</v>
+      </c>
+      <c r="F16" s="25">
         <v>20</v>
       </c>
-      <c r="G16" s="34">
+      <c r="G16" s="25">
         <v>100</v>
       </c>
     </row>

--- a/ypm.xlsx
+++ b/ypm.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="108" windowWidth="14808" windowHeight="8016" activeTab="9"/>
+    <workbookView xWindow="240" yWindow="108" windowWidth="14808" windowHeight="8016" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="295" uniqueCount="176">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="298" uniqueCount="178">
   <si>
     <t>生命</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -462,10 +462,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>function</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>price</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -494,12 +490,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>恢复10%生命值</t>
-  </si>
-  <si>
-    <t>恢复30%生命值</t>
-  </si>
-  <si>
     <t>恢复100点魔法值</t>
   </si>
   <si>
@@ -541,15 +531,6 @@
   </si>
   <si>
     <t>鞋子</t>
-  </si>
-  <si>
-    <t>攻击力</t>
-  </si>
-  <si>
-    <t>防御</t>
-  </si>
-  <si>
-    <t>移动速度</t>
   </si>
   <si>
     <t>task1</t>
@@ -744,6 +725,37 @@
   </si>
   <si>
     <t>表名为Bag_playerID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>description</t>
+  </si>
+  <si>
+    <t>description</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>description</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>aaa</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>funcValue</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>funcType</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>恢复100生命值</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>恢复300生命值</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -973,6 +985,15 @@
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -1001,15 +1022,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1148,11 +1160,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="262704512"/>
-        <c:axId val="263156864"/>
+        <c:axId val="266702208"/>
+        <c:axId val="267154560"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="262704512"/>
+        <c:axId val="266702208"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1162,7 +1174,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="263156864"/>
+        <c:crossAx val="267154560"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1170,7 +1182,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="263156864"/>
+        <c:axId val="267154560"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1181,7 +1193,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="262704512"/>
+        <c:crossAx val="266702208"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1708,33 +1720,33 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I21" sqref="I21"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="L13" sqref="L13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="B1" t="s">
         <v>104</v>
       </c>
       <c r="C1" t="s">
-        <v>139</v>
+        <v>133</v>
       </c>
       <c r="D1" t="s">
-        <v>134</v>
+        <v>128</v>
       </c>
       <c r="E1" t="s">
-        <v>105</v>
+        <v>170</v>
       </c>
       <c r="F1" t="s">
-        <v>135</v>
+        <v>129</v>
       </c>
       <c r="G1" t="s">
-        <v>136</v>
+        <v>130</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
@@ -1742,7 +1754,7 @@
         <v>6101</v>
       </c>
       <c r="B2" t="s">
-        <v>159</v>
+        <v>153</v>
       </c>
       <c r="C2">
         <v>1</v>
@@ -1751,7 +1763,7 @@
         <v>1</v>
       </c>
       <c r="E2" t="s">
-        <v>151</v>
+        <v>145</v>
       </c>
       <c r="F2">
         <v>3</v>
@@ -1765,7 +1777,7 @@
         <v>6102</v>
       </c>
       <c r="B3" t="s">
-        <v>159</v>
+        <v>153</v>
       </c>
       <c r="C3">
         <v>3</v>
@@ -1774,7 +1786,7 @@
         <v>2</v>
       </c>
       <c r="E3" t="s">
-        <v>151</v>
+        <v>145</v>
       </c>
       <c r="F3">
         <v>3</v>
@@ -1788,7 +1800,7 @@
         <v>6103</v>
       </c>
       <c r="B4" t="s">
-        <v>158</v>
+        <v>152</v>
       </c>
       <c r="C4">
         <v>5</v>
@@ -1797,7 +1809,7 @@
         <v>3</v>
       </c>
       <c r="E4" t="s">
-        <v>151</v>
+        <v>145</v>
       </c>
       <c r="F4">
         <v>3</v>
@@ -1811,7 +1823,7 @@
         <v>6104</v>
       </c>
       <c r="B5" t="s">
-        <v>158</v>
+        <v>152</v>
       </c>
       <c r="C5">
         <v>7</v>
@@ -1820,7 +1832,7 @@
         <v>4</v>
       </c>
       <c r="E5" t="s">
-        <v>151</v>
+        <v>145</v>
       </c>
       <c r="F5">
         <v>3</v>
@@ -1834,7 +1846,7 @@
         <v>6105</v>
       </c>
       <c r="B6" t="s">
-        <v>158</v>
+        <v>152</v>
       </c>
       <c r="C6">
         <v>9</v>
@@ -1843,7 +1855,7 @@
         <v>5</v>
       </c>
       <c r="E6" t="s">
-        <v>151</v>
+        <v>145</v>
       </c>
       <c r="F6">
         <v>3</v>
@@ -1857,7 +1869,7 @@
         <v>6201</v>
       </c>
       <c r="B7" t="s">
-        <v>161</v>
+        <v>155</v>
       </c>
       <c r="C7" s="24">
         <v>5</v>
@@ -1866,7 +1878,7 @@
         <v>1</v>
       </c>
       <c r="E7" s="24" t="s">
-        <v>148</v>
+        <v>142</v>
       </c>
       <c r="F7" s="24">
         <v>6</v>
@@ -1880,7 +1892,7 @@
         <v>6202</v>
       </c>
       <c r="B8" t="s">
-        <v>161</v>
+        <v>155</v>
       </c>
       <c r="C8" s="24">
         <v>8</v>
@@ -1889,7 +1901,7 @@
         <v>2</v>
       </c>
       <c r="E8" s="24" t="s">
-        <v>148</v>
+        <v>142</v>
       </c>
       <c r="F8" s="24">
         <v>6</v>
@@ -1903,7 +1915,7 @@
         <v>6203</v>
       </c>
       <c r="B9" t="s">
-        <v>160</v>
+        <v>154</v>
       </c>
       <c r="C9" s="24">
         <v>11</v>
@@ -1912,7 +1924,7 @@
         <v>3</v>
       </c>
       <c r="E9" s="24" t="s">
-        <v>148</v>
+        <v>142</v>
       </c>
       <c r="F9" s="24">
         <v>6</v>
@@ -1926,7 +1938,7 @@
         <v>6204</v>
       </c>
       <c r="B10" t="s">
-        <v>160</v>
+        <v>154</v>
       </c>
       <c r="C10" s="24">
         <v>14</v>
@@ -1935,7 +1947,7 @@
         <v>4</v>
       </c>
       <c r="E10" s="24" t="s">
-        <v>148</v>
+        <v>142</v>
       </c>
       <c r="F10" s="24">
         <v>6</v>
@@ -1949,7 +1961,7 @@
         <v>6205</v>
       </c>
       <c r="B11" t="s">
-        <v>160</v>
+        <v>154</v>
       </c>
       <c r="C11" s="24">
         <v>17</v>
@@ -1958,7 +1970,7 @@
         <v>5</v>
       </c>
       <c r="E11" s="24" t="s">
-        <v>148</v>
+        <v>142</v>
       </c>
       <c r="F11" s="24">
         <v>6</v>
@@ -1972,7 +1984,7 @@
         <v>6301</v>
       </c>
       <c r="B12" t="s">
-        <v>163</v>
+        <v>157</v>
       </c>
       <c r="C12" s="25">
         <v>10</v>
@@ -1981,7 +1993,7 @@
         <v>1</v>
       </c>
       <c r="E12" s="25" t="s">
-        <v>150</v>
+        <v>144</v>
       </c>
       <c r="F12" s="25">
         <v>20</v>
@@ -1995,7 +2007,7 @@
         <v>6302</v>
       </c>
       <c r="B13" t="s">
-        <v>163</v>
+        <v>157</v>
       </c>
       <c r="C13" s="25">
         <v>15</v>
@@ -2004,7 +2016,7 @@
         <v>2</v>
       </c>
       <c r="E13" s="25" t="s">
-        <v>150</v>
+        <v>144</v>
       </c>
       <c r="F13" s="25">
         <v>20</v>
@@ -2018,7 +2030,7 @@
         <v>6303</v>
       </c>
       <c r="B14" t="s">
-        <v>162</v>
+        <v>156</v>
       </c>
       <c r="C14" s="25">
         <v>20</v>
@@ -2027,7 +2039,7 @@
         <v>3</v>
       </c>
       <c r="E14" s="25" t="s">
-        <v>150</v>
+        <v>144</v>
       </c>
       <c r="F14" s="25">
         <v>20</v>
@@ -2041,7 +2053,7 @@
         <v>6304</v>
       </c>
       <c r="B15" t="s">
-        <v>162</v>
+        <v>156</v>
       </c>
       <c r="C15" s="25">
         <v>25</v>
@@ -2050,7 +2062,7 @@
         <v>4</v>
       </c>
       <c r="E15" s="25" t="s">
-        <v>150</v>
+        <v>144</v>
       </c>
       <c r="F15" s="25">
         <v>20</v>
@@ -2064,7 +2076,7 @@
         <v>6305</v>
       </c>
       <c r="B16" t="s">
-        <v>162</v>
+        <v>156</v>
       </c>
       <c r="C16" s="25">
         <v>30</v>
@@ -2073,7 +2085,7 @@
         <v>5</v>
       </c>
       <c r="E16" s="25" t="s">
-        <v>150</v>
+        <v>144</v>
       </c>
       <c r="F16" s="25">
         <v>20</v>
@@ -2100,10 +2112,10 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>164</v>
+        <v>158</v>
       </c>
       <c r="B1" t="s">
-        <v>165</v>
+        <v>159</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
@@ -2490,11 +2502,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="29" t="s">
+      <c r="A1" s="32" t="s">
         <v>27</v>
       </c>
-      <c r="B1" s="30"/>
-      <c r="C1" s="31"/>
+      <c r="B1" s="33"/>
+      <c r="C1" s="34"/>
     </row>
     <row r="2" spans="1:7" ht="32.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="8" t="s">
@@ -2515,7 +2527,7 @@
         <v>31</v>
       </c>
       <c r="C3" s="9" t="s">
-        <v>166</v>
+        <v>160</v>
       </c>
     </row>
     <row r="4" spans="1:7" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
@@ -2529,11 +2541,11 @@
     </row>
     <row r="5" spans="1:7" ht="25.05" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="6" spans="1:7" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="32" t="s">
+      <c r="A6" s="35" t="s">
         <v>26</v>
       </c>
-      <c r="B6" s="33"/>
-      <c r="C6" s="34"/>
+      <c r="B6" s="36"/>
+      <c r="C6" s="37"/>
     </row>
     <row r="7" spans="1:7" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="12" t="s">
@@ -2564,11 +2576,11 @@
     </row>
     <row r="10" spans="1:7" ht="25.05" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="11" spans="1:7" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="35" t="s">
+      <c r="A11" s="38" t="s">
         <v>50</v>
       </c>
-      <c r="B11" s="35"/>
-      <c r="C11" s="35"/>
+      <c r="B11" s="38"/>
+      <c r="C11" s="38"/>
     </row>
     <row r="12" spans="1:7" ht="48.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="15" t="s">
@@ -2578,7 +2590,7 @@
         <v>40</v>
       </c>
       <c r="C12" s="17" t="s">
-        <v>172</v>
+        <v>166</v>
       </c>
     </row>
     <row r="13" spans="1:7" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
@@ -2591,11 +2603,11 @@
       <c r="C13" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="E13" s="28" t="s">
+      <c r="E13" s="31" t="s">
         <v>45</v>
       </c>
-      <c r="F13" s="28"/>
-      <c r="G13" s="28"/>
+      <c r="F13" s="31"/>
+      <c r="G13" s="31"/>
     </row>
     <row r="14" spans="1:7" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="8" t="s">
@@ -2607,9 +2619,9 @@
       <c r="C14" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="E14" s="28"/>
-      <c r="F14" s="28"/>
-      <c r="G14" s="28"/>
+      <c r="E14" s="31"/>
+      <c r="F14" s="31"/>
+      <c r="G14" s="31"/>
     </row>
     <row r="15" spans="1:7" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="8" t="s">
@@ -2621,9 +2633,9 @@
       <c r="C15" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="E15" s="28"/>
-      <c r="F15" s="28"/>
-      <c r="G15" s="28"/>
+      <c r="E15" s="31"/>
+      <c r="F15" s="31"/>
+      <c r="G15" s="31"/>
     </row>
     <row r="16" spans="1:7" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="8" t="s">
@@ -2649,11 +2661,11 @@
     </row>
     <row r="18" spans="1:3" ht="25.05" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="19" spans="1:3" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="27" t="s">
+      <c r="A19" s="30" t="s">
         <v>49</v>
       </c>
-      <c r="B19" s="27"/>
-      <c r="C19" s="27"/>
+      <c r="B19" s="30"/>
+      <c r="C19" s="30"/>
     </row>
     <row r="20" spans="1:3" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="12" t="s">
@@ -2761,11 +2773,11 @@
       <c r="C30" s="18"/>
     </row>
     <row r="32" spans="1:3" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="26" t="s">
+      <c r="A32" s="29" t="s">
         <v>63</v>
       </c>
-      <c r="B32" s="26"/>
-      <c r="C32" s="26"/>
+      <c r="B32" s="29"/>
+      <c r="C32" s="29"/>
     </row>
     <row r="33" spans="1:6" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="20" t="s">
@@ -2791,7 +2803,7 @@
     </row>
     <row r="35" spans="1:6" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="20" t="s">
-        <v>167</v>
+        <v>161</v>
       </c>
       <c r="B35" s="19" t="s">
         <v>32</v>
@@ -2813,7 +2825,7 @@
     </row>
     <row r="37" spans="1:6" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="20" t="s">
-        <v>168</v>
+        <v>162</v>
       </c>
       <c r="B37" s="19" t="s">
         <v>32</v>
@@ -2835,7 +2847,7 @@
     </row>
     <row r="39" spans="1:6" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="20" t="s">
-        <v>169</v>
+        <v>163</v>
       </c>
       <c r="B39" s="19" t="s">
         <v>32</v>
@@ -2878,21 +2890,21 @@
       </c>
     </row>
     <row r="44" spans="1:6" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="27" t="s">
+      <c r="A44" s="30" t="s">
         <v>73</v>
       </c>
-      <c r="B44" s="27"/>
-      <c r="C44" s="27"/>
+      <c r="B44" s="30"/>
+      <c r="C44" s="30"/>
     </row>
     <row r="45" spans="1:6" ht="37.799999999999997" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45" s="23" t="s">
-        <v>170</v>
-      </c>
-      <c r="B45" s="36" t="s">
-        <v>171</v>
+        <v>164</v>
+      </c>
+      <c r="B45" s="26" t="s">
+        <v>165</v>
       </c>
       <c r="C45" s="9" t="s">
-        <v>173</v>
+        <v>167</v>
       </c>
     </row>
     <row r="46" spans="1:6" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
@@ -2916,10 +2928,10 @@
       <c r="C47" s="7" t="s">
         <v>85</v>
       </c>
-      <c r="E47" s="37" t="s">
-        <v>174</v>
-      </c>
-      <c r="F47" s="37"/>
+      <c r="E47" s="27" t="s">
+        <v>168</v>
+      </c>
+      <c r="F47" s="27"/>
     </row>
     <row r="48" spans="1:6" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A48" s="20" t="s">
@@ -2931,10 +2943,10 @@
       <c r="C48" s="7" t="s">
         <v>80</v>
       </c>
-      <c r="E48" s="38" t="s">
-        <v>175</v>
-      </c>
-      <c r="F48" s="38"/>
+      <c r="E48" s="28" t="s">
+        <v>169</v>
+      </c>
+      <c r="F48" s="28"/>
     </row>
     <row r="49" spans="1:3" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A49" s="20" t="s">
@@ -2960,15 +2972,15 @@
     </row>
   </sheetData>
   <mergeCells count="9">
+    <mergeCell ref="A1:C1"/>
+    <mergeCell ref="A6:C6"/>
+    <mergeCell ref="A11:C11"/>
     <mergeCell ref="E47:F47"/>
     <mergeCell ref="E48:F48"/>
     <mergeCell ref="A32:C32"/>
     <mergeCell ref="A44:C44"/>
     <mergeCell ref="E13:G15"/>
     <mergeCell ref="A19:C19"/>
-    <mergeCell ref="A1:C1"/>
-    <mergeCell ref="A6:C6"/>
-    <mergeCell ref="A11:C11"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3111,15 +3123,15 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D7"/>
+  <dimension ref="A1:F7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I9" sqref="I9"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F15" sqref="F15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>103</v>
       </c>
@@ -3127,93 +3139,135 @@
         <v>104</v>
       </c>
       <c r="C1" t="s">
+        <v>175</v>
+      </c>
+      <c r="D1" t="s">
+        <v>174</v>
+      </c>
+      <c r="E1" t="s">
+        <v>93</v>
+      </c>
+      <c r="F1" t="s">
         <v>105</v>
       </c>
-      <c r="D1" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1001</v>
       </c>
       <c r="B2" t="s">
-        <v>107</v>
-      </c>
-      <c r="C2" t="s">
-        <v>113</v>
+        <v>106</v>
+      </c>
+      <c r="C2">
+        <v>1</v>
       </c>
       <c r="D2">
+        <v>100</v>
+      </c>
+      <c r="E2" t="s">
+        <v>176</v>
+      </c>
+      <c r="F2">
         <v>200</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>1002</v>
       </c>
       <c r="B3" t="s">
-        <v>108</v>
-      </c>
-      <c r="C3" t="s">
-        <v>114</v>
+        <v>107</v>
+      </c>
+      <c r="C3">
+        <v>1</v>
       </c>
       <c r="D3">
+        <v>300</v>
+      </c>
+      <c r="E3" t="s">
+        <v>177</v>
+      </c>
+      <c r="F3">
         <v>800</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>1101</v>
       </c>
       <c r="B4" t="s">
-        <v>109</v>
-      </c>
-      <c r="C4" t="s">
-        <v>115</v>
+        <v>108</v>
+      </c>
+      <c r="C4">
+        <v>2</v>
       </c>
       <c r="D4">
+        <v>100</v>
+      </c>
+      <c r="E4" t="s">
+        <v>112</v>
+      </c>
+      <c r="F4">
         <v>300</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>1102</v>
       </c>
       <c r="B5" t="s">
-        <v>110</v>
-      </c>
-      <c r="C5" t="s">
-        <v>116</v>
+        <v>109</v>
+      </c>
+      <c r="C5">
+        <v>2</v>
       </c>
       <c r="D5">
+        <v>200</v>
+      </c>
+      <c r="E5" t="s">
+        <v>113</v>
+      </c>
+      <c r="F5">
         <v>700</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>1301</v>
       </c>
       <c r="B6" t="s">
-        <v>111</v>
-      </c>
-      <c r="C6" t="s">
-        <v>117</v>
+        <v>110</v>
+      </c>
+      <c r="C6">
+        <v>3</v>
       </c>
       <c r="D6">
+        <v>0</v>
+      </c>
+      <c r="E6" t="s">
+        <v>114</v>
+      </c>
+      <c r="F6">
         <v>1000</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>1401</v>
       </c>
       <c r="B7" t="s">
-        <v>112</v>
-      </c>
-      <c r="C7" t="s">
-        <v>118</v>
+        <v>111</v>
+      </c>
+      <c r="C7">
+        <v>0</v>
       </c>
       <c r="D7">
+        <v>0</v>
+      </c>
+      <c r="E7" t="s">
+        <v>115</v>
+      </c>
+      <c r="F7">
         <v>1000</v>
       </c>
     </row>
@@ -3226,40 +3280,43 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E6"/>
+  <dimension ref="A1:F6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G29" sqref="G29"/>
+      <selection activeCell="F15" sqref="F15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="B1" t="s">
         <v>104</v>
       </c>
       <c r="C1" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="D1" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="E1" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+        <v>118</v>
+      </c>
+      <c r="F1" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>2001</v>
       </c>
       <c r="B2" t="s">
-        <v>123</v>
-      </c>
-      <c r="C2" t="s">
-        <v>128</v>
+        <v>120</v>
+      </c>
+      <c r="C2">
+        <v>1</v>
       </c>
       <c r="D2">
         <v>100</v>
@@ -3267,16 +3324,19 @@
       <c r="E2">
         <v>1000</v>
       </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F2" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2002</v>
       </c>
       <c r="B3" t="s">
-        <v>124</v>
-      </c>
-      <c r="C3" t="s">
-        <v>128</v>
+        <v>121</v>
+      </c>
+      <c r="C3">
+        <v>1</v>
       </c>
       <c r="D3">
         <v>80</v>
@@ -3284,16 +3344,19 @@
       <c r="E3">
         <v>1000</v>
       </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F3" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>2003</v>
       </c>
       <c r="B4" t="s">
-        <v>125</v>
-      </c>
-      <c r="C4" t="s">
-        <v>128</v>
+        <v>122</v>
+      </c>
+      <c r="C4">
+        <v>1</v>
       </c>
       <c r="D4">
         <v>60</v>
@@ -3301,16 +3364,19 @@
       <c r="E4">
         <v>1000</v>
       </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F4" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>2101</v>
       </c>
       <c r="B5" t="s">
-        <v>126</v>
-      </c>
-      <c r="C5" t="s">
-        <v>129</v>
+        <v>123</v>
+      </c>
+      <c r="C5">
+        <v>2</v>
       </c>
       <c r="D5">
         <v>30</v>
@@ -3318,22 +3384,28 @@
       <c r="E5">
         <v>1200</v>
       </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F5" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>2201</v>
       </c>
       <c r="B6" t="s">
-        <v>127</v>
-      </c>
-      <c r="C6" t="s">
-        <v>130</v>
+        <v>124</v>
+      </c>
+      <c r="C6">
+        <v>3</v>
       </c>
       <c r="D6">
         <v>10</v>
       </c>
       <c r="E6">
         <v>1500</v>
+      </c>
+      <c r="F6" t="s">
+        <v>173</v>
       </c>
     </row>
   </sheetData>
@@ -3354,7 +3426,7 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="B1" t="s">
         <v>104</v>
@@ -3365,7 +3437,7 @@
         <v>3001</v>
       </c>
       <c r="B2" t="s">
-        <v>131</v>
+        <v>125</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
@@ -3373,7 +3445,7 @@
         <v>3002</v>
       </c>
       <c r="B3" t="s">
-        <v>132</v>
+        <v>126</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
@@ -3381,7 +3453,7 @@
         <v>3003</v>
       </c>
       <c r="B4" t="s">
-        <v>133</v>
+        <v>127</v>
       </c>
     </row>
   </sheetData>
@@ -3395,32 +3467,32 @@
   <dimension ref="A1:G16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H23" sqref="H23"/>
+      <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="B1" t="s">
         <v>104</v>
       </c>
       <c r="C1" t="s">
-        <v>139</v>
+        <v>133</v>
       </c>
       <c r="D1" t="s">
-        <v>134</v>
+        <v>128</v>
       </c>
       <c r="E1" t="s">
-        <v>105</v>
+        <v>171</v>
       </c>
       <c r="F1" t="s">
-        <v>135</v>
+        <v>129</v>
       </c>
       <c r="G1" t="s">
-        <v>136</v>
+        <v>130</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
@@ -3428,7 +3500,7 @@
         <v>4101</v>
       </c>
       <c r="B2" t="s">
-        <v>138</v>
+        <v>132</v>
       </c>
       <c r="C2">
         <v>1</v>
@@ -3437,7 +3509,7 @@
         <v>1</v>
       </c>
       <c r="E2" t="s">
-        <v>142</v>
+        <v>136</v>
       </c>
       <c r="F2">
         <v>3</v>
@@ -3451,7 +3523,7 @@
         <v>4102</v>
       </c>
       <c r="B3" t="s">
-        <v>138</v>
+        <v>132</v>
       </c>
       <c r="C3">
         <v>3</v>
@@ -3460,7 +3532,7 @@
         <v>2</v>
       </c>
       <c r="E3" t="s">
-        <v>143</v>
+        <v>137</v>
       </c>
       <c r="F3">
         <v>3</v>
@@ -3474,7 +3546,7 @@
         <v>4103</v>
       </c>
       <c r="B4" t="s">
-        <v>137</v>
+        <v>131</v>
       </c>
       <c r="C4">
         <v>5</v>
@@ -3483,7 +3555,7 @@
         <v>3</v>
       </c>
       <c r="E4" t="s">
-        <v>144</v>
+        <v>138</v>
       </c>
       <c r="F4">
         <v>3</v>
@@ -3497,7 +3569,7 @@
         <v>4104</v>
       </c>
       <c r="B5" t="s">
-        <v>137</v>
+        <v>131</v>
       </c>
       <c r="C5">
         <v>7</v>
@@ -3506,7 +3578,7 @@
         <v>4</v>
       </c>
       <c r="E5" t="s">
-        <v>145</v>
+        <v>139</v>
       </c>
       <c r="F5">
         <v>3</v>
@@ -3520,7 +3592,7 @@
         <v>4105</v>
       </c>
       <c r="B6" t="s">
-        <v>137</v>
+        <v>131</v>
       </c>
       <c r="C6">
         <v>9</v>
@@ -3529,7 +3601,7 @@
         <v>5</v>
       </c>
       <c r="E6" t="s">
-        <v>146</v>
+        <v>140</v>
       </c>
       <c r="F6">
         <v>3</v>
@@ -3543,7 +3615,7 @@
         <v>4201</v>
       </c>
       <c r="B7" s="24" t="s">
-        <v>147</v>
+        <v>141</v>
       </c>
       <c r="C7" s="24">
         <v>5</v>
@@ -3552,7 +3624,7 @@
         <v>1</v>
       </c>
       <c r="E7" s="24" t="s">
-        <v>148</v>
+        <v>142</v>
       </c>
       <c r="F7" s="24">
         <v>8</v>
@@ -3566,7 +3638,7 @@
         <v>4202</v>
       </c>
       <c r="B8" s="24" t="s">
-        <v>147</v>
+        <v>141</v>
       </c>
       <c r="C8" s="24">
         <v>8</v>
@@ -3575,7 +3647,7 @@
         <v>2</v>
       </c>
       <c r="E8" s="24" t="s">
-        <v>148</v>
+        <v>142</v>
       </c>
       <c r="F8" s="24">
         <v>8</v>
@@ -3589,7 +3661,7 @@
         <v>4203</v>
       </c>
       <c r="B9" s="24" t="s">
-        <v>140</v>
+        <v>134</v>
       </c>
       <c r="C9" s="24">
         <v>11</v>
@@ -3598,7 +3670,7 @@
         <v>3</v>
       </c>
       <c r="E9" s="24" t="s">
-        <v>148</v>
+        <v>142</v>
       </c>
       <c r="F9" s="24">
         <v>8</v>
@@ -3612,7 +3684,7 @@
         <v>4204</v>
       </c>
       <c r="B10" s="24" t="s">
-        <v>140</v>
+        <v>134</v>
       </c>
       <c r="C10" s="24">
         <v>14</v>
@@ -3621,7 +3693,7 @@
         <v>4</v>
       </c>
       <c r="E10" s="24" t="s">
-        <v>148</v>
+        <v>142</v>
       </c>
       <c r="F10" s="24">
         <v>8</v>
@@ -3635,7 +3707,7 @@
         <v>4205</v>
       </c>
       <c r="B11" s="24" t="s">
-        <v>140</v>
+        <v>134</v>
       </c>
       <c r="C11" s="24">
         <v>17</v>
@@ -3644,7 +3716,7 @@
         <v>5</v>
       </c>
       <c r="E11" s="24" t="s">
-        <v>148</v>
+        <v>142</v>
       </c>
       <c r="F11" s="24">
         <v>8</v>
@@ -3658,7 +3730,7 @@
         <v>4301</v>
       </c>
       <c r="B12" s="25" t="s">
-        <v>149</v>
+        <v>143</v>
       </c>
       <c r="C12" s="25">
         <v>10</v>
@@ -3667,7 +3739,7 @@
         <v>1</v>
       </c>
       <c r="E12" s="25" t="s">
-        <v>150</v>
+        <v>144</v>
       </c>
       <c r="F12" s="25">
         <v>20</v>
@@ -3681,7 +3753,7 @@
         <v>4302</v>
       </c>
       <c r="B13" s="25" t="s">
-        <v>149</v>
+        <v>143</v>
       </c>
       <c r="C13" s="25">
         <v>15</v>
@@ -3690,7 +3762,7 @@
         <v>2</v>
       </c>
       <c r="E13" s="25" t="s">
-        <v>150</v>
+        <v>144</v>
       </c>
       <c r="F13" s="25">
         <v>20</v>
@@ -3704,7 +3776,7 @@
         <v>4303</v>
       </c>
       <c r="B14" s="25" t="s">
-        <v>141</v>
+        <v>135</v>
       </c>
       <c r="C14" s="25">
         <v>20</v>
@@ -3713,7 +3785,7 @@
         <v>3</v>
       </c>
       <c r="E14" s="25" t="s">
-        <v>150</v>
+        <v>144</v>
       </c>
       <c r="F14" s="25">
         <v>20</v>
@@ -3727,7 +3799,7 @@
         <v>4304</v>
       </c>
       <c r="B15" s="25" t="s">
-        <v>141</v>
+        <v>135</v>
       </c>
       <c r="C15" s="25">
         <v>25</v>
@@ -3736,7 +3808,7 @@
         <v>4</v>
       </c>
       <c r="E15" s="25" t="s">
-        <v>150</v>
+        <v>144</v>
       </c>
       <c r="F15" s="25">
         <v>20</v>
@@ -3750,7 +3822,7 @@
         <v>4305</v>
       </c>
       <c r="B16" s="25" t="s">
-        <v>141</v>
+        <v>135</v>
       </c>
       <c r="C16" s="25">
         <v>30</v>
@@ -3759,7 +3831,7 @@
         <v>5</v>
       </c>
       <c r="E16" s="25" t="s">
-        <v>150</v>
+        <v>144</v>
       </c>
       <c r="F16" s="25">
         <v>20</v>
@@ -3779,32 +3851,32 @@
   <dimension ref="A1:G16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J29" sqref="J29"/>
+      <selection activeCell="E1" sqref="E1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="B1" t="s">
         <v>104</v>
       </c>
       <c r="C1" t="s">
-        <v>139</v>
+        <v>133</v>
       </c>
       <c r="D1" t="s">
-        <v>134</v>
+        <v>128</v>
       </c>
       <c r="E1" t="s">
-        <v>105</v>
+        <v>170</v>
       </c>
       <c r="F1" t="s">
-        <v>135</v>
+        <v>129</v>
       </c>
       <c r="G1" t="s">
-        <v>136</v>
+        <v>130</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
@@ -3812,7 +3884,7 @@
         <v>5101</v>
       </c>
       <c r="B2" t="s">
-        <v>153</v>
+        <v>147</v>
       </c>
       <c r="C2">
         <v>1</v>
@@ -3821,7 +3893,7 @@
         <v>1</v>
       </c>
       <c r="E2" t="s">
-        <v>151</v>
+        <v>145</v>
       </c>
       <c r="F2">
         <v>4</v>
@@ -3835,7 +3907,7 @@
         <v>5102</v>
       </c>
       <c r="B3" t="s">
-        <v>153</v>
+        <v>147</v>
       </c>
       <c r="C3">
         <v>3</v>
@@ -3844,7 +3916,7 @@
         <v>2</v>
       </c>
       <c r="E3" t="s">
-        <v>151</v>
+        <v>145</v>
       </c>
       <c r="F3">
         <v>4</v>
@@ -3858,7 +3930,7 @@
         <v>5103</v>
       </c>
       <c r="B4" t="s">
-        <v>152</v>
+        <v>146</v>
       </c>
       <c r="C4">
         <v>5</v>
@@ -3867,7 +3939,7 @@
         <v>3</v>
       </c>
       <c r="E4" t="s">
-        <v>151</v>
+        <v>145</v>
       </c>
       <c r="F4">
         <v>4</v>
@@ -3881,7 +3953,7 @@
         <v>5104</v>
       </c>
       <c r="B5" t="s">
-        <v>152</v>
+        <v>146</v>
       </c>
       <c r="C5">
         <v>7</v>
@@ -3890,7 +3962,7 @@
         <v>4</v>
       </c>
       <c r="E5" t="s">
-        <v>151</v>
+        <v>145</v>
       </c>
       <c r="F5">
         <v>4</v>
@@ -3904,7 +3976,7 @@
         <v>5105</v>
       </c>
       <c r="B6" t="s">
-        <v>152</v>
+        <v>146</v>
       </c>
       <c r="C6">
         <v>9</v>
@@ -3913,7 +3985,7 @@
         <v>5</v>
       </c>
       <c r="E6" t="s">
-        <v>151</v>
+        <v>145</v>
       </c>
       <c r="F6">
         <v>4</v>
@@ -3927,7 +3999,7 @@
         <v>5201</v>
       </c>
       <c r="B7" t="s">
-        <v>155</v>
+        <v>149</v>
       </c>
       <c r="C7" s="24">
         <v>5</v>
@@ -3936,7 +4008,7 @@
         <v>1</v>
       </c>
       <c r="E7" s="24" t="s">
-        <v>148</v>
+        <v>142</v>
       </c>
       <c r="F7" s="24">
         <v>10</v>
@@ -3950,7 +4022,7 @@
         <v>5202</v>
       </c>
       <c r="B8" t="s">
-        <v>155</v>
+        <v>149</v>
       </c>
       <c r="C8" s="24">
         <v>8</v>
@@ -3959,7 +4031,7 @@
         <v>2</v>
       </c>
       <c r="E8" s="24" t="s">
-        <v>148</v>
+        <v>142</v>
       </c>
       <c r="F8" s="24">
         <v>10</v>
@@ -3973,7 +4045,7 @@
         <v>5203</v>
       </c>
       <c r="B9" t="s">
-        <v>154</v>
+        <v>148</v>
       </c>
       <c r="C9" s="24">
         <v>11</v>
@@ -3982,7 +4054,7 @@
         <v>3</v>
       </c>
       <c r="E9" s="24" t="s">
-        <v>148</v>
+        <v>142</v>
       </c>
       <c r="F9" s="24">
         <v>10</v>
@@ -3996,7 +4068,7 @@
         <v>5204</v>
       </c>
       <c r="B10" t="s">
-        <v>154</v>
+        <v>148</v>
       </c>
       <c r="C10" s="24">
         <v>14</v>
@@ -4005,7 +4077,7 @@
         <v>4</v>
       </c>
       <c r="E10" s="24" t="s">
-        <v>148</v>
+        <v>142</v>
       </c>
       <c r="F10" s="24">
         <v>10</v>
@@ -4019,7 +4091,7 @@
         <v>5205</v>
       </c>
       <c r="B11" t="s">
-        <v>154</v>
+        <v>148</v>
       </c>
       <c r="C11" s="24">
         <v>17</v>
@@ -4028,7 +4100,7 @@
         <v>5</v>
       </c>
       <c r="E11" s="24" t="s">
-        <v>148</v>
+        <v>142</v>
       </c>
       <c r="F11" s="24">
         <v>10</v>
@@ -4042,7 +4114,7 @@
         <v>5301</v>
       </c>
       <c r="B12" t="s">
-        <v>157</v>
+        <v>151</v>
       </c>
       <c r="C12" s="25">
         <v>10</v>
@@ -4051,7 +4123,7 @@
         <v>1</v>
       </c>
       <c r="E12" s="25" t="s">
-        <v>150</v>
+        <v>144</v>
       </c>
       <c r="F12" s="25">
         <v>20</v>
@@ -4065,7 +4137,7 @@
         <v>5302</v>
       </c>
       <c r="B13" t="s">
-        <v>157</v>
+        <v>151</v>
       </c>
       <c r="C13" s="25">
         <v>15</v>
@@ -4074,7 +4146,7 @@
         <v>2</v>
       </c>
       <c r="E13" s="25" t="s">
-        <v>150</v>
+        <v>144</v>
       </c>
       <c r="F13" s="25">
         <v>20</v>
@@ -4088,7 +4160,7 @@
         <v>5303</v>
       </c>
       <c r="B14" t="s">
-        <v>156</v>
+        <v>150</v>
       </c>
       <c r="C14" s="25">
         <v>20</v>
@@ -4097,7 +4169,7 @@
         <v>3</v>
       </c>
       <c r="E14" s="25" t="s">
-        <v>150</v>
+        <v>144</v>
       </c>
       <c r="F14" s="25">
         <v>20</v>
@@ -4111,7 +4183,7 @@
         <v>5304</v>
       </c>
       <c r="B15" t="s">
-        <v>156</v>
+        <v>150</v>
       </c>
       <c r="C15" s="25">
         <v>25</v>
@@ -4120,7 +4192,7 @@
         <v>4</v>
       </c>
       <c r="E15" s="25" t="s">
-        <v>150</v>
+        <v>144</v>
       </c>
       <c r="F15" s="25">
         <v>20</v>
@@ -4134,7 +4206,7 @@
         <v>5305</v>
       </c>
       <c r="B16" t="s">
-        <v>156</v>
+        <v>150</v>
       </c>
       <c r="C16" s="25">
         <v>30</v>
@@ -4143,7 +4215,7 @@
         <v>5</v>
       </c>
       <c r="E16" s="25" t="s">
-        <v>150</v>
+        <v>144</v>
       </c>
       <c r="F16" s="25">
         <v>20</v>

--- a/ypm.xlsx
+++ b/ypm.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="108" windowWidth="14808" windowHeight="8016" activeTab="4"/>
+    <workbookView xWindow="240" yWindow="108" windowWidth="14808" windowHeight="8016" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="298" uniqueCount="178">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="303" uniqueCount="181">
   <si>
     <t>生命</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -756,6 +756,18 @@
   </si>
   <si>
     <t>恢复300生命值</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>level</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>intensifyLevel</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>type</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -988,21 +1000,6 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1022,6 +1019,21 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1160,11 +1172,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="266702208"/>
-        <c:axId val="267154560"/>
+        <c:axId val="265194880"/>
+        <c:axId val="265651328"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="266702208"/>
+        <c:axId val="265194880"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1174,7 +1186,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="267154560"/>
+        <c:crossAx val="265651328"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1182,7 +1194,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="267154560"/>
+        <c:axId val="265651328"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1193,7 +1205,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="266702208"/>
+        <c:crossAx val="265194880"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2490,8 +2502,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G50"/>
   <sheetViews>
-    <sheetView topLeftCell="A37" workbookViewId="0">
-      <selection activeCell="F45" sqref="F45"/>
+    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
+      <selection activeCell="C53" sqref="C53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
@@ -2502,11 +2514,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="32" t="s">
+      <c r="A1" s="27" t="s">
         <v>27</v>
       </c>
-      <c r="B1" s="33"/>
-      <c r="C1" s="34"/>
+      <c r="B1" s="28"/>
+      <c r="C1" s="29"/>
     </row>
     <row r="2" spans="1:7" ht="32.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="8" t="s">
@@ -2541,11 +2553,11 @@
     </row>
     <row r="5" spans="1:7" ht="25.05" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="6" spans="1:7" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="35" t="s">
+      <c r="A6" s="30" t="s">
         <v>26</v>
       </c>
-      <c r="B6" s="36"/>
-      <c r="C6" s="37"/>
+      <c r="B6" s="31"/>
+      <c r="C6" s="32"/>
     </row>
     <row r="7" spans="1:7" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="12" t="s">
@@ -2576,11 +2588,11 @@
     </row>
     <row r="10" spans="1:7" ht="25.05" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="11" spans="1:7" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="38" t="s">
+      <c r="A11" s="33" t="s">
         <v>50</v>
       </c>
-      <c r="B11" s="38"/>
-      <c r="C11" s="38"/>
+      <c r="B11" s="33"/>
+      <c r="C11" s="33"/>
     </row>
     <row r="12" spans="1:7" ht="48.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="15" t="s">
@@ -2603,11 +2615,11 @@
       <c r="C13" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="E13" s="31" t="s">
+      <c r="E13" s="38" t="s">
         <v>45</v>
       </c>
-      <c r="F13" s="31"/>
-      <c r="G13" s="31"/>
+      <c r="F13" s="38"/>
+      <c r="G13" s="38"/>
     </row>
     <row r="14" spans="1:7" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="8" t="s">
@@ -2619,9 +2631,9 @@
       <c r="C14" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="E14" s="31"/>
-      <c r="F14" s="31"/>
-      <c r="G14" s="31"/>
+      <c r="E14" s="38"/>
+      <c r="F14" s="38"/>
+      <c r="G14" s="38"/>
     </row>
     <row r="15" spans="1:7" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="8" t="s">
@@ -2633,9 +2645,9 @@
       <c r="C15" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="E15" s="31"/>
-      <c r="F15" s="31"/>
-      <c r="G15" s="31"/>
+      <c r="E15" s="38"/>
+      <c r="F15" s="38"/>
+      <c r="G15" s="38"/>
     </row>
     <row r="16" spans="1:7" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="8" t="s">
@@ -2661,11 +2673,11 @@
     </row>
     <row r="18" spans="1:3" ht="25.05" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="19" spans="1:3" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="30" t="s">
+      <c r="A19" s="37" t="s">
         <v>49</v>
       </c>
-      <c r="B19" s="30"/>
-      <c r="C19" s="30"/>
+      <c r="B19" s="37"/>
+      <c r="C19" s="37"/>
     </row>
     <row r="20" spans="1:3" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="12" t="s">
@@ -2773,11 +2785,11 @@
       <c r="C30" s="18"/>
     </row>
     <row r="32" spans="1:3" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="29" t="s">
+      <c r="A32" s="36" t="s">
         <v>63</v>
       </c>
-      <c r="B32" s="29"/>
-      <c r="C32" s="29"/>
+      <c r="B32" s="36"/>
+      <c r="C32" s="36"/>
     </row>
     <row r="33" spans="1:6" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="20" t="s">
@@ -2890,11 +2902,11 @@
       </c>
     </row>
     <row r="44" spans="1:6" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="30" t="s">
+      <c r="A44" s="37" t="s">
         <v>73</v>
       </c>
-      <c r="B44" s="30"/>
-      <c r="C44" s="30"/>
+      <c r="B44" s="37"/>
+      <c r="C44" s="37"/>
     </row>
     <row r="45" spans="1:6" ht="37.799999999999997" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45" s="23" t="s">
@@ -2928,10 +2940,10 @@
       <c r="C47" s="7" t="s">
         <v>85</v>
       </c>
-      <c r="E47" s="27" t="s">
+      <c r="E47" s="34" t="s">
         <v>168</v>
       </c>
-      <c r="F47" s="27"/>
+      <c r="F47" s="34"/>
     </row>
     <row r="48" spans="1:6" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A48" s="20" t="s">
@@ -2943,10 +2955,10 @@
       <c r="C48" s="7" t="s">
         <v>80</v>
       </c>
-      <c r="E48" s="28" t="s">
+      <c r="E48" s="35" t="s">
         <v>169</v>
       </c>
-      <c r="F48" s="28"/>
+      <c r="F48" s="35"/>
     </row>
     <row r="49" spans="1:3" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A49" s="20" t="s">
@@ -2993,7 +3005,7 @@
   <dimension ref="A1:I4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="M14" sqref="M14"/>
+      <selection activeCell="F21" sqref="F21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
@@ -3123,151 +3135,172 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:G7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F15" sqref="F15"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B1" sqref="B1:B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>103</v>
       </c>
       <c r="B1" t="s">
+        <v>180</v>
+      </c>
+      <c r="C1" t="s">
         <v>104</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>175</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>174</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>93</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1001</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2">
+        <v>1</v>
+      </c>
+      <c r="C2" t="s">
         <v>106</v>
       </c>
-      <c r="C2">
+      <c r="D2">
         <v>1</v>
       </c>
-      <c r="D2">
+      <c r="E2">
         <v>100</v>
       </c>
-      <c r="E2" t="s">
+      <c r="F2" t="s">
         <v>176</v>
       </c>
-      <c r="F2">
+      <c r="G2">
         <v>200</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>1002</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B3">
+        <v>1</v>
+      </c>
+      <c r="C3" t="s">
         <v>107</v>
       </c>
-      <c r="C3">
+      <c r="D3">
         <v>1</v>
       </c>
-      <c r="D3">
+      <c r="E3">
         <v>300</v>
       </c>
-      <c r="E3" t="s">
+      <c r="F3" t="s">
         <v>177</v>
       </c>
-      <c r="F3">
+      <c r="G3">
         <v>800</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>1101</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B4">
+        <v>1</v>
+      </c>
+      <c r="C4" t="s">
         <v>108</v>
       </c>
-      <c r="C4">
+      <c r="D4">
         <v>2</v>
       </c>
-      <c r="D4">
+      <c r="E4">
         <v>100</v>
       </c>
-      <c r="E4" t="s">
+      <c r="F4" t="s">
         <v>112</v>
       </c>
-      <c r="F4">
+      <c r="G4">
         <v>300</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>1102</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B5">
+        <v>1</v>
+      </c>
+      <c r="C5" t="s">
         <v>109</v>
       </c>
-      <c r="C5">
+      <c r="D5">
         <v>2</v>
       </c>
-      <c r="D5">
+      <c r="E5">
         <v>200</v>
       </c>
-      <c r="E5" t="s">
+      <c r="F5" t="s">
         <v>113</v>
       </c>
-      <c r="F5">
+      <c r="G5">
         <v>700</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>1301</v>
       </c>
-      <c r="B6" t="s">
+      <c r="B6">
+        <v>1</v>
+      </c>
+      <c r="C6" t="s">
         <v>110</v>
       </c>
-      <c r="C6">
+      <c r="D6">
         <v>3</v>
       </c>
-      <c r="D6">
+      <c r="E6">
         <v>0</v>
       </c>
-      <c r="E6" t="s">
+      <c r="F6" t="s">
         <v>114</v>
       </c>
-      <c r="F6">
+      <c r="G6">
         <v>1000</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>1401</v>
       </c>
-      <c r="B7" t="s">
+      <c r="B7">
+        <v>1</v>
+      </c>
+      <c r="C7" t="s">
         <v>111</v>
-      </c>
-      <c r="C7">
-        <v>0</v>
       </c>
       <c r="D7">
         <v>0</v>
       </c>
-      <c r="E7" t="s">
+      <c r="E7">
+        <v>0</v>
+      </c>
+      <c r="F7" t="s">
         <v>115</v>
       </c>
-      <c r="F7">
+      <c r="G7">
         <v>1000</v>
       </c>
     </row>
@@ -3280,131 +3313,185 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:I6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F15" sqref="F15"/>
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>116</v>
       </c>
       <c r="B1" t="s">
+        <v>180</v>
+      </c>
+      <c r="C1" t="s">
         <v>104</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>117</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>119</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
+        <v>178</v>
+      </c>
+      <c r="G1" t="s">
+        <v>179</v>
+      </c>
+      <c r="H1" t="s">
         <v>118</v>
       </c>
-      <c r="F1" t="s">
+      <c r="I1" t="s">
         <v>172</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>2001</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2">
+        <v>2</v>
+      </c>
+      <c r="C2" t="s">
         <v>120</v>
       </c>
-      <c r="C2">
+      <c r="D2">
         <v>1</v>
       </c>
-      <c r="D2">
+      <c r="E2">
         <v>100</v>
       </c>
-      <c r="E2">
+      <c r="F2">
+        <v>0</v>
+      </c>
+      <c r="G2">
+        <v>0</v>
+      </c>
+      <c r="H2">
         <v>1000</v>
       </c>
-      <c r="F2" t="s">
+      <c r="I2" t="s">
         <v>173</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2002</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B3">
+        <v>2</v>
+      </c>
+      <c r="C3" t="s">
         <v>121</v>
       </c>
-      <c r="C3">
+      <c r="D3">
         <v>1</v>
       </c>
-      <c r="D3">
+      <c r="E3">
         <v>80</v>
       </c>
-      <c r="E3">
+      <c r="F3">
+        <v>0</v>
+      </c>
+      <c r="G3">
+        <v>0</v>
+      </c>
+      <c r="H3">
         <v>1000</v>
       </c>
-      <c r="F3" t="s">
+      <c r="I3" t="s">
         <v>173</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>2003</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B4">
+        <v>2</v>
+      </c>
+      <c r="C4" t="s">
         <v>122</v>
       </c>
-      <c r="C4">
+      <c r="D4">
         <v>1</v>
       </c>
-      <c r="D4">
+      <c r="E4">
         <v>60</v>
       </c>
-      <c r="E4">
+      <c r="F4">
+        <v>0</v>
+      </c>
+      <c r="G4">
+        <v>0</v>
+      </c>
+      <c r="H4">
         <v>1000</v>
       </c>
-      <c r="F4" t="s">
+      <c r="I4" t="s">
         <v>173</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>2101</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B5">
+        <v>2</v>
+      </c>
+      <c r="C5" t="s">
         <v>123</v>
       </c>
-      <c r="C5">
+      <c r="D5">
         <v>2</v>
       </c>
-      <c r="D5">
+      <c r="E5">
         <v>30</v>
       </c>
-      <c r="E5">
+      <c r="F5">
+        <v>0</v>
+      </c>
+      <c r="G5">
+        <v>0</v>
+      </c>
+      <c r="H5">
         <v>1200</v>
       </c>
-      <c r="F5" t="s">
+      <c r="I5" t="s">
         <v>173</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>2201</v>
       </c>
-      <c r="B6" t="s">
+      <c r="B6">
+        <v>2</v>
+      </c>
+      <c r="C6" t="s">
         <v>124</v>
       </c>
-      <c r="C6">
+      <c r="D6">
         <v>3</v>
       </c>
-      <c r="D6">
+      <c r="E6">
         <v>10</v>
       </c>
-      <c r="E6">
+      <c r="F6">
+        <v>0</v>
+      </c>
+      <c r="G6">
+        <v>0</v>
+      </c>
+      <c r="H6">
         <v>1500</v>
       </c>
-      <c r="F6" t="s">
+      <c r="I6" t="s">
         <v>173</v>
       </c>
     </row>
@@ -3416,43 +3503,55 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B4"/>
+  <dimension ref="A1:C4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>116</v>
       </c>
       <c r="B1" t="s">
+        <v>180</v>
+      </c>
+      <c r="C1" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>3001</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2">
+        <v>3</v>
+      </c>
+      <c r="C2" t="s">
         <v>125</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>3002</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B3">
+        <v>3</v>
+      </c>
+      <c r="C3" t="s">
         <v>126</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>3003</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B4">
+        <v>3</v>
+      </c>
+      <c r="C4" t="s">
         <v>127</v>
       </c>
     </row>

--- a/ypm.xlsx
+++ b/ypm.xlsx
@@ -1172,11 +1172,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="265194880"/>
-        <c:axId val="265651328"/>
+        <c:axId val="268930432"/>
+        <c:axId val="269710464"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="265194880"/>
+        <c:axId val="268930432"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1186,7 +1186,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="265651328"/>
+        <c:crossAx val="269710464"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1194,7 +1194,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="265651328"/>
+        <c:axId val="269710464"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1205,7 +1205,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="265194880"/>
+        <c:crossAx val="268930432"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2502,8 +2502,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G50"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
-      <selection activeCell="C53" sqref="C53"/>
+    <sheetView tabSelected="1" topLeftCell="A36" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E42" sqref="E42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
